--- a/study01/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study01/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -6,18 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="weak_spearman_15" r:id="rId3" sheetId="1"/>
-    <sheet name="weak_spearman_17" r:id="rId4" sheetId="2"/>
-    <sheet name="weak_spearman_25" r:id="rId5" sheetId="3"/>
-    <sheet name="weak_spearman_33" r:id="rId6" sheetId="4"/>
+    <sheet name="weak_spearman_8" r:id="rId3" sheetId="1"/>
+    <sheet name="weak_spearman_12" r:id="rId4" sheetId="2"/>
+    <sheet name="weak_spearman_15" r:id="rId5" sheetId="3"/>
+    <sheet name="weak_spearman_17" r:id="rId6" sheetId="4"/>
+    <sheet name="weak_spearman_25" r:id="rId7" sheetId="5"/>
+    <sheet name="weak_spearman_34" r:id="rId8" sheetId="6"/>
+    <sheet name="weak_spearman_35" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="82">
   <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -26,10 +29,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
-    <t>Interest/Enjoyment</t>
+    <t>Intrinsic Motivation</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -53,13 +56,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-Int/E</t>
+    <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in non-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in non-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -78,63 +81,6 @@
   </si>
   <si>
     <t>PlayerRole</t>
-  </si>
-  <si>
-    <t>non-gamified</t>
-  </si>
-  <si>
-    <t>Grupo  Team 6</t>
-  </si>
-  <si>
-    <t>Grupo Team 12</t>
-  </si>
-  <si>
-    <t>Grupo Team 15</t>
-  </si>
-  <si>
-    <t>Grupo Team 5</t>
-  </si>
-  <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 3</t>
-  </si>
-  <si>
-    <t>Grupo Team 7</t>
-  </si>
-  <si>
-    <t>Grupo Team 9</t>
-  </si>
-  <si>
-    <t>Grupo Team 2</t>
-  </si>
-  <si>
-    <t>Grupo Team 10</t>
-  </si>
-  <si>
-    <t>Grupo Team 4</t>
-  </si>
-  <si>
-    <t>Grupo Team 16</t>
-  </si>
-  <si>
-    <t>Grupo Team 13</t>
-  </si>
-  <si>
-    <t>Apprentice</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice using the method: spearman</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -185,25 +131,109 @@
     <t>Grupo Hera</t>
   </si>
   <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
     <t>Yee Achiever</t>
   </si>
   <si>
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Perceived Choice in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified using the method: spearman</t>
+  </si>
+  <si>
+    <t>Interest/Enjoyment</t>
+  </si>
+  <si>
+    <t>GiS/K-Int/E</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 15</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 2</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Grupo Team 16</t>
+  </si>
+  <si>
+    <t>Grupo Team 13</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
   </si>
   <si>
-    <t>DffTh-PrcvC</t>
+    <t>GiS/K-PrcvC</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Perceived Choice in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Perceived Choice in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Master</t>
   </si>
   <si>
     <t>Grupo Team 8</t>
@@ -212,22 +242,28 @@
     <t>Grupo Team 14</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Pressure/Tension in non-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
   </si>
   <si>
-    <t>DffTh-Prs/T</t>
+    <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Pressure/Tension in non-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Pressure/Tension in non-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -235,13 +271,1432 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="297">
+  <fonts count="519">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2178,7 +3633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="981">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2836,6 +4291,498 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2893,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.47857299333678455</v>
+        <v>-0.42499999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -2904,10 +4851,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.47857299333678455</v>
+        <v>-0.42499999999999993</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -2938,11 +4885,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="51">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="51">
+        <v>1.710947035355221E8</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>1.807700109461596</v>
+        <v>-1.692853016318571</v>
       </c>
     </row>
     <row r="13">
@@ -2950,10 +4897,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>1.807700109461596</v>
-      </c>
-      <c r="C13" t="e" s="52">
-        <v>#DIV/0!</v>
+        <v>-1.692853016318571</v>
+      </c>
+      <c r="C13" t="n" s="52">
+        <v>1.710947035355221E8</v>
       </c>
     </row>
     <row r="14">
@@ -2985,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>-0.0</v>
+        <v>3.5089823585550026E-101</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.09804724697504451</v>
+        <v>0.11429547548052231</v>
       </c>
     </row>
     <row r="19">
@@ -2996,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.09804724697504451</v>
+        <v>0.11429547548052231</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>-0.0</v>
+        <v>3.5089823585550026E-101</v>
       </c>
     </row>
     <row r="20">
@@ -3037,16 +4984,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.09834442384331653</v>
+        <v>-0.7696919042969373</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.47857299333678455</v>
+        <v>-0.42499999999999993</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.8147259185117363</v>
+        <v>0.11154819124718549</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.09804724697504451</v>
+        <v>0.11429547548052231</v>
       </c>
     </row>
     <row r="25">
@@ -3074,485 +5021,553 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.7874560893311836</v>
+        <v>0.4435506988506746</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.773106762710953</v>
+        <v>0.5697381260416503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.24046162597318932</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.7898986304506928</v>
+        <v>-0.6106220062284993</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.10656307576313483</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>1.6857043285689055</v>
+        <v>-0.07571978819468783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>0.0632336423123559</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>1.2803706176147251</v>
+        <v>-0.534796421058169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>-0.057427662050236555</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-0.7898986304506928</v>
+        <v>0.33599966761122724</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.2978705780156252</v>
+        <v>0.7677755565187216</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.7898986304506928</v>
+        <v>-0.4791273908624722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.06516017468002039</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>1.494615099880728</v>
+        <v>0.28829891230944166</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>-0.3116758145415511</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>-1.2095490448059338</v>
+        <v>0.008114607330584278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>0.05335579491401121</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>0.6254556208359129</v>
+        <v>0.4666838297954899</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="113">
-        <v>0.7274105624998651</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="B38" t="n" s="114">
-        <v>1.6857043285689055</v>
+        <v>1.2184175744803527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="113">
-        <v>-0.04406551542588773</v>
+        <v>0.18624669103421349</v>
       </c>
       <c r="B39" t="n" s="114">
-        <v>-1.6422760317333962</v>
+        <v>0.457867387478017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="113">
-        <v>-0.08820413996353477</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B40" t="n" s="114">
-        <v>-1.9498717313577705</v>
+        <v>-0.2328161539268661</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="113">
-        <v>-0.0016491846915258062</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B41" t="n" s="114">
-        <v>-0.9441000489703051</v>
+        <v>0.3074747488526356</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42" t="n" s="113">
+        <v>0.6632820662179566</v>
+      </c>
+      <c r="B42" t="n" s="114">
+        <v>1.2184175744803525</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="113">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="B43" t="n" s="114">
+        <v>-0.791089338425403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="118">
+    <row r="46">
+      <c r="A46" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="132">
+    <row r="47">
+      <c r="A47" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B45" t="s" s="132">
+      <c r="B47" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C45" t="s" s="132">
+      <c r="C47" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="132">
+      <c r="D47" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E45" t="s" s="132">
+      <c r="E47" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F45" t="s" s="132">
+      <c r="F47" t="s" s="132">
         <v>20</v>
       </c>
-      <c r="G45" t="s" s="132">
+      <c r="G47" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="H45" t="s" s="132">
+      <c r="H47" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10171.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>698531.0</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s" s="137">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>36</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>0.7874560893311836</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>0.773106762710953</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="133">
-        <v>10185.0</v>
-      </c>
-      <c r="B47" t="n" s="134">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C47" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s" s="137">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s" s="138">
-        <v>36</v>
-      </c>
-      <c r="G47" t="n" s="139">
-        <v>0.24046162597318932</v>
-      </c>
-      <c r="H47" t="n" s="140">
-        <v>-0.7898986304506928</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10187.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>9790781.0</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>-0.10656307576313483</v>
+        <v>0.4435506988506746</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>1.6857043285689055</v>
+        <v>0.5697381260416503</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10192.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B49" t="n" s="134">
-        <v>1.0276682E7</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C49" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G49" t="n" s="139">
-        <v>0.0632336423123559</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H49" t="n" s="140">
-        <v>1.2803706176147251</v>
+        <v>-0.6106220062284993</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10202.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B50" t="n" s="134">
-        <v>1.0277036E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C50" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s" s="138">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>-0.057427662050236555</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H50" t="n" s="140">
-        <v>-0.7898986304506928</v>
+        <v>-0.07571978819468783</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="133">
-        <v>10203.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B51" t="n" s="134">
-        <v>9921470.0</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C51" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="136">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s" s="138">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G51" t="n" s="139">
-        <v>-0.2978705780156252</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H51" t="n" s="140">
-        <v>-0.7898986304506928</v>
+        <v>-0.534796421058169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="133">
-        <v>10208.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B52" t="n" s="134">
-        <v>1.0276932E7</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C52" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="136">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52" t="n" s="139">
-        <v>0.06516017468002039</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H52" t="n" s="140">
-        <v>1.494615099880728</v>
+        <v>0.33599966761122724</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="133">
-        <v>10210.0</v>
+        <v>10190.0</v>
       </c>
       <c r="B53" t="n" s="134">
-        <v>1.0277015E7</v>
+        <v>1.0276907E7</v>
       </c>
       <c r="C53" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="136">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s" s="138">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n" s="139">
-        <v>-0.3116758145415511</v>
+        <v>0.7677755565187216</v>
       </c>
       <c r="H53" t="n" s="140">
-        <v>-1.2095490448059338</v>
+        <v>-0.4791273908624722</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="133">
-        <v>10220.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B54" t="n" s="134">
-        <v>9760151.0</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C54" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="136">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="n" s="139">
-        <v>0.05335579491401121</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H54" t="n" s="140">
-        <v>0.6254556208359129</v>
+        <v>0.28829891230944166</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="133">
-        <v>10224.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B55" t="n" s="134">
-        <v>9368772.0</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C55" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D55" t="s" s="136">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G55" t="n" s="139">
-        <v>0.7274105624998651</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H55" t="n" s="140">
-        <v>1.6857043285689055</v>
+        <v>0.008114607330584278</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="133">
-        <v>10227.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B56" t="n" s="134">
-        <v>9274382.0</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C56" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D56" t="s" s="136">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s" s="138">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56" t="n" s="139">
-        <v>-0.04406551542588773</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H56" t="n" s="140">
-        <v>-1.6422760317333962</v>
+        <v>0.4666838297954899</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="133">
-        <v>10233.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B57" t="n" s="134">
-        <v>9805320.0</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C57" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D57" t="s" s="136">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s" s="137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s" s="138">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n" s="139">
-        <v>-0.08820413996353477</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H57" t="n" s="140">
-        <v>-1.9498717313577705</v>
+        <v>1.2184175744803527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="133">
-        <v>10238.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B58" t="n" s="134">
-        <v>1.0276953E7</v>
+        <v>9795272.0</v>
       </c>
       <c r="C58" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D58" t="s" s="136">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s" s="137">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s" s="138">
+        <v>39</v>
+      </c>
+      <c r="G58" t="n" s="139">
+        <v>0.18624669103421349</v>
+      </c>
+      <c r="H58" t="n" s="140">
+        <v>0.457867387478017</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="133">
+        <v>10209.0</v>
+      </c>
+      <c r="B59" t="n" s="134">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C59" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="136">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s" s="137">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s" s="138">
+        <v>38</v>
+      </c>
+      <c r="G59" t="n" s="139">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="H59" t="n" s="140">
+        <v>-0.2328161539268661</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="133">
+        <v>10221.0</v>
+      </c>
+      <c r="B60" t="n" s="134">
+        <v>9082496.0</v>
+      </c>
+      <c r="C60" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="136">
         <v>34</v>
       </c>
-      <c r="E58" t="s" s="137">
+      <c r="E60" t="s" s="137">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s" s="138">
+        <v>38</v>
+      </c>
+      <c r="G60" t="n" s="139">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="H60" t="n" s="140">
+        <v>0.3074747488526356</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="133">
+        <v>10231.0</v>
+      </c>
+      <c r="B61" t="n" s="134">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C61" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="136">
         <v>35</v>
       </c>
-      <c r="F58" t="s" s="138">
+      <c r="E61" t="s" s="137">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s" s="138">
+        <v>38</v>
+      </c>
+      <c r="G61" t="n" s="139">
+        <v>0.6632820662179566</v>
+      </c>
+      <c r="H61" t="n" s="140">
+        <v>1.2184175744803525</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="133">
+        <v>10240.0</v>
+      </c>
+      <c r="B62" t="n" s="134">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C62" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="136">
         <v>36</v>
       </c>
-      <c r="G58" t="n" s="139">
-        <v>-0.0016491846915258062</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>-0.9441000489703051</v>
+      <c r="E62" t="s" s="137">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s" s="138">
+        <v>38</v>
+      </c>
+      <c r="G62" t="n" s="139">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="H62" t="n" s="140">
+        <v>-0.791089338425403</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +5596,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -3605,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -3613,18 +5628,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="171">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.45300073857106987</v>
+        <v>-0.311446022240358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.45300073857106987</v>
+        <v>-0.311446022240358</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>0.9999999999999998</v>
@@ -3651,29 +5666,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="191">
-        <v>1.710947035355221E8</v>
+      <c r="B12" t="e" s="191">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-1.832079430502808</v>
+        <v>-1.671187800196711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-1.832079430502808</v>
+        <v>-1.671187800196711</v>
       </c>
       <c r="C13" t="n" s="192">
-        <v>1.710947035355221E8</v>
+        <v>2.4196445019013932E8</v>
       </c>
     </row>
     <row r="14">
@@ -3697,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -3705,21 +5720,21 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="211">
-        <v>3.5089823585550026E-101</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.08994044872919899</v>
+        <v>0.10667989610475397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.08994044872919899</v>
+        <v>0.10667989610475397</v>
       </c>
       <c r="C19" t="n" s="212">
-        <v>3.5089823585550026E-101</v>
+        <v>4.0494065550147275E-201</v>
       </c>
     </row>
     <row r="20">
@@ -3754,19 +5769,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.7834579077851791</v>
+        <v>-0.6132655833590062</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.45300073857106987</v>
+        <v>-0.311446022240358</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.07716977104860118</v>
+        <v>0.06973347015339669</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.08994044872919899</v>
+        <v>0.10667989610475397</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +5796,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -3789,558 +5804,1000 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>-0.05529337773285724</v>
+        <v>0.3438762335287266</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.3387122873091471</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>-0.016712276344255608</v>
+        <v>0.4435506988506746</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>-0.6219687965423425</v>
+        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>-0.0046094263256747925</v>
+        <v>0.35861364877545043</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>0.19402186758287432</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-0.012570674202673153</v>
+        <v>-0.020582617339175047</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>-0.7898986304506928</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>0.34144077651681565</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>-0.11082691902818398</v>
+        <v>-0.621765728385078</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>0.0463865963424066</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.275142343091302</v>
+        <v>0.19438092697207512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>-0.054162887292449696</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>0.4816339711720801</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>0.3882419605826939</v>
+        <v>0.3038326457914028</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>-0.7898986304506928</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>0.04552897448731888</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>0.044987029545124846</v>
+        <v>-0.11051255328776674</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="253">
-        <v>-0.2615178931333381</v>
+        <v>0.046388024403813066</v>
       </c>
       <c r="B38" t="n" s="254">
-        <v>1.645938112593639</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="253">
-        <v>-0.22854364714606656</v>
+        <v>0.7677755565187216</v>
       </c>
       <c r="B39" t="n" s="254">
-        <v>1.494615099880728</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="253">
-        <v>-0.0016491846915258062</v>
+        <v>0.4092911304004456</v>
       </c>
       <c r="B40" t="n" s="254">
-        <v>-1.4354725221800997</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="253">
-        <v>-0.19661825550064593</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="B41" t="n" s="254">
-        <v>-0.275142343091302</v>
+        <v>0.48203349533710915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="253">
-        <v>0.06516017468002039</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="B42" t="n" s="254">
-        <v>1.645938112593639</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="253">
-        <v>0.30746666978226384</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="B43" t="n" s="254">
-        <v>-1.2095490448059338</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44" t="n" s="253">
+        <v>0.7204334228506288</v>
+      </c>
+      <c r="B44" t="n" s="254">
+        <v>1.646504990094715</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="253">
+        <v>0.4773203224855433</v>
+      </c>
+      <c r="B45" t="n" s="254">
+        <v>-0.7897528725203661</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="253">
+        <v>0.1736163319851855</v>
+      </c>
+      <c r="B46" t="n" s="254">
+        <v>1.4951617995718107</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="253">
+        <v>-0.020582617339175047</v>
+      </c>
+      <c r="B47" t="n" s="254">
+        <v>1.9117264102869815</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="253">
+        <v>0.16036616228342887</v>
+      </c>
+      <c r="B48" t="n" s="254">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="253">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="B49" t="n" s="254">
+        <v>-1.4355957758372622</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="253">
+        <v>0.34235911521372075</v>
+      </c>
+      <c r="B50" t="n" s="254">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="253">
+        <v>0.5689298887674148</v>
+      </c>
+      <c r="B51" t="n" s="254">
+        <v>0.19438092697207512</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="253">
+        <v>0.3359920405213156</v>
+      </c>
+      <c r="B52" t="n" s="254">
+        <v>-1.3261001130049008</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="253">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="B53" t="n" s="254">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="253">
+        <v>0.5860505124924433</v>
+      </c>
+      <c r="B54" t="n" s="254">
+        <v>1.4951617995718107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="253">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="B55" t="n" s="254">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="253">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="B56" t="n" s="254">
+        <v>-1.2095717428674873</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
+    <row r="58">
+      <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="258">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="272">
+    <row r="59">
+      <c r="A59" t="s" s="258">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="272">
         <v>15</v>
       </c>
-      <c r="B47" t="s" s="272">
+      <c r="B60" t="s" s="272">
         <v>16</v>
       </c>
-      <c r="C47" t="s" s="272">
+      <c r="C60" t="s" s="272">
         <v>17</v>
       </c>
-      <c r="D47" t="s" s="272">
+      <c r="D60" t="s" s="272">
         <v>18</v>
       </c>
-      <c r="E47" t="s" s="272">
+      <c r="E60" t="s" s="272">
         <v>19</v>
       </c>
-      <c r="F47" t="s" s="272">
+      <c r="F60" t="s" s="272">
         <v>20</v>
       </c>
-      <c r="G47" t="s" s="272">
+      <c r="G60" t="s" s="272">
         <v>3</v>
       </c>
-      <c r="H47" t="s" s="272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="273">
-        <v>10170.0</v>
-      </c>
-      <c r="B48" t="n" s="274">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C48" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D48" t="s" s="276">
+      <c r="H60" t="s" s="272">
         <v>41</v>
-      </c>
-      <c r="E48" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G48" t="n" s="279">
-        <v>-0.05529337773285724</v>
-      </c>
-      <c r="H48" t="n" s="280">
-        <v>0.3387122873091471</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="273">
-        <v>10176.0</v>
-      </c>
-      <c r="B49" t="n" s="274">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C49" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s" s="276">
-        <v>42</v>
-      </c>
-      <c r="E49" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G49" t="n" s="279">
-        <v>-0.016712276344255608</v>
-      </c>
-      <c r="H49" t="n" s="280">
-        <v>-0.6219687965423425</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="273">
-        <v>10178.0</v>
-      </c>
-      <c r="B50" t="n" s="274">
-        <v>8656201.0</v>
-      </c>
-      <c r="C50" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s" s="276">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G50" t="n" s="279">
-        <v>-0.0046094263256747925</v>
-      </c>
-      <c r="H50" t="n" s="280">
-        <v>0.19402186758287432</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="273">
-        <v>10183.0</v>
-      </c>
-      <c r="B51" t="n" s="274">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C51" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s" s="276">
-        <v>44</v>
-      </c>
-      <c r="E51" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F51" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G51" t="n" s="279">
-        <v>-0.012570674202673153</v>
-      </c>
-      <c r="H51" t="n" s="280">
-        <v>-0.7898986304506928</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="273">
-        <v>10186.0</v>
-      </c>
-      <c r="B52" t="n" s="274">
-        <v>1.0310551E7</v>
-      </c>
-      <c r="C52" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D52" t="s" s="276">
-        <v>45</v>
-      </c>
-      <c r="E52" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F52" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G52" t="n" s="279">
-        <v>0.34144077651681565</v>
-      </c>
-      <c r="H52" t="n" s="280">
-        <v>-0.11082691902818398</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="273">
-        <v>10190.0</v>
-      </c>
-      <c r="B53" t="n" s="274">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C53" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s" s="276">
-        <v>46</v>
-      </c>
-      <c r="E53" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F53" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G53" t="n" s="279">
-        <v>0.0463865963424066</v>
-      </c>
-      <c r="H53" t="n" s="280">
-        <v>-0.275142343091302</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="273">
-        <v>10195.0</v>
-      </c>
-      <c r="B54" t="n" s="274">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C54" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D54" t="s" s="276">
-        <v>47</v>
-      </c>
-      <c r="E54" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F54" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G54" t="n" s="279">
-        <v>-0.054162887292449696</v>
-      </c>
-      <c r="H54" t="n" s="280">
-        <v>0.4816339711720801</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="273">
-        <v>10196.0</v>
-      </c>
-      <c r="B55" t="n" s="274">
-        <v>1.0310655E7</v>
-      </c>
-      <c r="C55" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D55" t="s" s="276">
-        <v>48</v>
-      </c>
-      <c r="E55" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F55" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G55" t="n" s="279">
-        <v>0.3882419605826939</v>
-      </c>
-      <c r="H55" t="n" s="280">
-        <v>-0.7898986304506928</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="273">
-        <v>10197.0</v>
-      </c>
-      <c r="B56" t="n" s="274">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C56" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s" s="276">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F56" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G56" t="n" s="279">
-        <v>0.04552897448731888</v>
-      </c>
-      <c r="H56" t="n" s="280">
-        <v>0.044987029545124846</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="273">
-        <v>10198.0</v>
-      </c>
-      <c r="B57" t="n" s="274">
-        <v>1.0310888E7</v>
-      </c>
-      <c r="C57" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s" s="276">
-        <v>50</v>
-      </c>
-      <c r="E57" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F57" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G57" t="n" s="279">
-        <v>-0.2615178931333381</v>
-      </c>
-      <c r="H57" t="n" s="280">
-        <v>1.645938112593639</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="273">
-        <v>10200.0</v>
-      </c>
-      <c r="B58" t="n" s="274">
-        <v>9795272.0</v>
-      </c>
-      <c r="C58" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s" s="276">
-        <v>51</v>
-      </c>
-      <c r="E58" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F58" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G58" t="n" s="279">
-        <v>-0.22854364714606656</v>
-      </c>
-      <c r="H58" t="n" s="280">
-        <v>1.494615099880728</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="273">
-        <v>10209.0</v>
-      </c>
-      <c r="B59" t="n" s="274">
-        <v>1.0262669E7</v>
-      </c>
-      <c r="C59" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s" s="276">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F59" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G59" t="n" s="279">
-        <v>-0.0016491846915258062</v>
-      </c>
-      <c r="H59" t="n" s="280">
-        <v>-1.4354725221800997</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="273">
-        <v>10221.0</v>
-      </c>
-      <c r="B60" t="n" s="274">
-        <v>9082496.0</v>
-      </c>
-      <c r="C60" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s" s="276">
-        <v>53</v>
-      </c>
-      <c r="E60" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F60" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G60" t="n" s="279">
-        <v>-0.19661825550064593</v>
-      </c>
-      <c r="H60" t="n" s="280">
-        <v>-0.275142343091302</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="273">
-        <v>10231.0</v>
+        <v>10169.0</v>
       </c>
       <c r="B61" t="n" s="274">
-        <v>1.0276911E7</v>
+        <v>1.0377538E7</v>
       </c>
       <c r="C61" t="s" s="275">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s" s="276">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s" s="277">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s" s="278">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G61" t="n" s="279">
-        <v>0.06516017468002039</v>
+        <v>0.3438762335287266</v>
       </c>
       <c r="H61" t="n" s="280">
-        <v>1.645938112593639</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="273">
+        <v>10170.0</v>
+      </c>
+      <c r="B62" t="n" s="274">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C62" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G62" t="n" s="279">
+        <v>0.4435506988506746</v>
+      </c>
+      <c r="H62" t="n" s="280">
+        <v>0.3390917056505436</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="273">
+        <v>10174.0</v>
+      </c>
+      <c r="B63" t="n" s="274">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C63" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G63" t="n" s="279">
+        <v>0.35861364877545043</v>
+      </c>
+      <c r="H63" t="n" s="280">
+        <v>0.04532479257032093</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="273">
+        <v>10175.0</v>
+      </c>
+      <c r="B64" t="n" s="274">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C64" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G64" t="n" s="279">
+        <v>-0.020582617339175047</v>
+      </c>
+      <c r="H64" t="n" s="280">
+        <v>0.773547756634461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="273">
+        <v>10176.0</v>
+      </c>
+      <c r="B65" t="n" s="274">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C65" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G65" t="n" s="279">
+        <v>0.5310873221279265</v>
+      </c>
+      <c r="H65" t="n" s="280">
+        <v>-0.621765728385078</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="273">
+        <v>10178.0</v>
+      </c>
+      <c r="B66" t="n" s="274">
+        <v>8656201.0</v>
+      </c>
+      <c r="C66" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G66" t="n" s="279">
+        <v>0.8974785237700684</v>
+      </c>
+      <c r="H66" t="n" s="280">
+        <v>0.19438092697207512</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="273">
+        <v>10183.0</v>
+      </c>
+      <c r="B67" t="n" s="274">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C67" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G67" t="n" s="279">
+        <v>0.6398767900707459</v>
+      </c>
+      <c r="H67" t="n" s="280">
+        <v>-0.7897528725203661</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="273">
+        <v>10184.0</v>
+      </c>
+      <c r="B68" t="n" s="274">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C68" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s" s="276">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G68" t="n" s="279">
+        <v>0.3038326457914028</v>
+      </c>
+      <c r="H68" t="n" s="280">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="273">
+        <v>10186.0</v>
+      </c>
+      <c r="B69" t="n" s="274">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C69" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s" s="276">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G69" t="n" s="279">
+        <v>0.7744710186718347</v>
+      </c>
+      <c r="H69" t="n" s="280">
+        <v>-0.11051255328776674</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="273">
+        <v>10189.0</v>
+      </c>
+      <c r="B70" t="n" s="274">
+        <v>9363926.0</v>
+      </c>
+      <c r="C70" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s" s="276">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G70" t="n" s="279">
+        <v>0.046388024403813066</v>
+      </c>
+      <c r="H70" t="n" s="280">
+        <v>-0.7897528725203661</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="273">
+        <v>10190.0</v>
+      </c>
+      <c r="B71" t="n" s="274">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C71" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G71" t="n" s="279">
+        <v>0.7677755565187216</v>
+      </c>
+      <c r="H71" t="n" s="280">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="273">
+        <v>10193.0</v>
+      </c>
+      <c r="B72" t="n" s="274">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C72" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G72" t="n" s="279">
+        <v>0.4092911304004456</v>
+      </c>
+      <c r="H72" t="n" s="280">
+        <v>0.04532479257032093</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="273">
+        <v>10195.0</v>
+      </c>
+      <c r="B73" t="n" s="274">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C73" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G73" t="n" s="279">
+        <v>0.4770354022576471</v>
+      </c>
+      <c r="H73" t="n" s="280">
+        <v>0.48203349533710915</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="273">
+        <v>10196.0</v>
+      </c>
+      <c r="B74" t="n" s="274">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C74" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G74" t="n" s="279">
+        <v>0.7163284176930924</v>
+      </c>
+      <c r="H74" t="n" s="280">
+        <v>-0.7897528725203661</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B75" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C75" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s" s="276">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G75" t="n" s="279">
+        <v>0.3397982112727087</v>
+      </c>
+      <c r="H75" t="n" s="280">
+        <v>0.04532479257032093</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="273">
+        <v>10198.0</v>
+      </c>
+      <c r="B76" t="n" s="274">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C76" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s" s="276">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G76" t="n" s="279">
+        <v>0.7204334228506288</v>
+      </c>
+      <c r="H76" t="n" s="280">
+        <v>1.646504990094715</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="273">
+        <v>10199.0</v>
+      </c>
+      <c r="B77" t="n" s="274">
+        <v>1.0276737E7</v>
+      </c>
+      <c r="C77" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s" s="276">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G77" t="n" s="279">
+        <v>0.4773203224855433</v>
+      </c>
+      <c r="H77" t="n" s="280">
+        <v>-0.7897528725203661</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B78" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C78" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s" s="276">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G78" t="n" s="279">
+        <v>0.1736163319851855</v>
+      </c>
+      <c r="H78" t="n" s="280">
+        <v>1.4951617995718107</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B79" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C79" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s" s="276">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G79" t="n" s="279">
+        <v>-0.020582617339175047</v>
+      </c>
+      <c r="H79" t="n" s="280">
+        <v>1.9117264102869815</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B80" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C80" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G80" t="n" s="279">
+        <v>0.16036616228342887</v>
+      </c>
+      <c r="H80" t="n" s="280">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="273">
+        <v>10209.0</v>
+      </c>
+      <c r="B81" t="n" s="274">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C81" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s" s="276">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G81" t="n" s="279">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="H81" t="n" s="280">
+        <v>-1.4355957758372622</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B82" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C82" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G82" t="n" s="279">
+        <v>0.34235911521372075</v>
+      </c>
+      <c r="H82" t="n" s="280">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="273">
+        <v>10215.0</v>
+      </c>
+      <c r="B83" t="n" s="274">
+        <v>9285227.0</v>
+      </c>
+      <c r="C83" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s" s="278">
+        <v>39</v>
+      </c>
+      <c r="G83" t="n" s="279">
+        <v>0.5689298887674148</v>
+      </c>
+      <c r="H83" t="n" s="280">
+        <v>0.19438092697207512</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="273">
+        <v>10218.0</v>
+      </c>
+      <c r="B84" t="n" s="274">
+        <v>9842913.0</v>
+      </c>
+      <c r="C84" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s" s="276">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G84" t="n" s="279">
+        <v>0.3359920405213156</v>
+      </c>
+      <c r="H84" t="n" s="280">
+        <v>-1.3261001130049008</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="273">
+        <v>10221.0</v>
+      </c>
+      <c r="B85" t="n" s="274">
+        <v>9082496.0</v>
+      </c>
+      <c r="C85" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s" s="276">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G85" t="n" s="279">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="H85" t="n" s="280">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="273">
+        <v>10223.0</v>
+      </c>
+      <c r="B86" t="n" s="274">
+        <v>9795185.0</v>
+      </c>
+      <c r="C86" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G86" t="n" s="279">
+        <v>0.5860505124924433</v>
+      </c>
+      <c r="H86" t="n" s="280">
+        <v>1.4951617995718107</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="273">
+        <v>10232.0</v>
+      </c>
+      <c r="B87" t="n" s="274">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C87" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s" s="276">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G87" t="n" s="279">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="H87" t="n" s="280">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="273">
         <v>10240.0</v>
       </c>
-      <c r="B62" t="n" s="274">
+      <c r="B88" t="n" s="274">
         <v>1.0276654E7</v>
       </c>
-      <c r="C62" t="s" s="275">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s" s="276">
-        <v>55</v>
-      </c>
-      <c r="E62" t="s" s="277">
-        <v>35</v>
-      </c>
-      <c r="F62" t="s" s="278">
-        <v>56</v>
-      </c>
-      <c r="G62" t="n" s="279">
-        <v>0.30746666978226384</v>
-      </c>
-      <c r="H62" t="n" s="280">
-        <v>-1.2095490448059338</v>
+      <c r="C88" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="E88" t="s" s="277">
+        <v>37</v>
+      </c>
+      <c r="F88" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="G88" t="n" s="279">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="H88" t="n" s="280">
+        <v>-1.2095717428674873</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +6826,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -4393,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -4404,18 +6861,18 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.3020964705941851</v>
+        <v>0.38991141071260466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.3020964705941851</v>
+        <v>0.38991141071260466</v>
       </c>
       <c r="C7" t="n" s="312">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -4439,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -4450,18 +6907,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>1.0977842516152845</v>
+        <v>1.404340032713265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>1.0977842516152845</v>
-      </c>
-      <c r="C13" t="n" s="332">
-        <v>1.643824740178312E8</v>
+        <v>1.404340032713265</v>
+      </c>
+      <c r="C13" t="e" s="332">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -4485,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -4496,18 +6953,18 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.29383817783234</v>
+        <v>0.18781847420254577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.29383817783234</v>
+        <v>0.18781847420254577</v>
       </c>
       <c r="C19" t="n" s="352">
-        <v>1.7303475806942525E-93</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -4542,19 +6999,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.27209631493532643</v>
+        <v>-0.20514666975391668</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.3020964705941851</v>
+        <v>0.38991141071260466</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.7176470569410225</v>
+        <v>0.7745054754502911</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.29383817783234</v>
+        <v>0.18781847420254577</v>
       </c>
     </row>
     <row r="25">
@@ -4569,7 +7026,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -4577,119 +7034,116 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>0.1583290083772529</v>
+        <v>0.6958150618138979</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>-1.2099760054557764</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>-0.04251847919301664</v>
+        <v>0.6117407227935575</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>0.4320882469491817</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>0.23847550772379</v>
+        <v>0.5363092399507949</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>-0.2307766080207083</v>
+        <v>1.6864194200065388</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>-0.1396731669319534</v>
+        <v>0.6023079138440499</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>-0.11282595799200293</v>
+        <v>1.2808857647983833</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>-0.19731402536560821</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>0.4320882469491817</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>-0.018520554827498086</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.8849239582290443</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>0.35837289813392276</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>0.8124942542253428</v>
+        <v>1.4951617995718105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>0.3476157791728752</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>1.4950616043287008</v>
+        <v>-1.2095717428674873</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
-        <v>0.047992902175278504</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="B37" t="n" s="394">
-        <v>-0.4559339723327851</v>
+        <v>0.6258755079433423</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="393">
-        <v>-0.11105069991800237</v>
+        <v>0.5937457922035082</v>
       </c>
       <c r="B38" t="n" s="394">
-        <v>-2.1244035784035935</v>
+        <v>1.6864194200065388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="393">
-        <v>-0.32875481141990415</v>
+        <v>0.5833106739550313</v>
       </c>
       <c r="B39" t="n" s="394">
-        <v>-1.3231890149954377</v>
+        <v>-1.642504682808196</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="393">
-        <v>-0.09555292568119382</v>
+        <v>0.562721654380123</v>
       </c>
       <c r="B40" t="n" s="394">
-        <v>0.010212527763678972</v>
+        <v>-1.9503088126836738</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="393">
-        <v>-0.12662512634410175</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="B41" t="n" s="394">
-        <v>-0.8849239582290443</v>
+        <v>-0.9440135863889301</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="393">
-        <v>-0.26345899743098544</v>
-      </c>
-      <c r="B42" t="n" s="394">
-        <v>0.010212527763678972</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4698,403 +7152,372 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="s" s="398">
+        <v>48</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="398">
-        <v>62</v>
+      <c r="A45" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s" s="412">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="412">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s" s="412">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s" s="412">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s" s="412">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s" s="412">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s" s="412">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s" s="412">
-        <v>59</v>
+      <c r="A46" t="n" s="413">
+        <v>10171.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>698531.0</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>63</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>0.6958150618138979</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="413">
-        <v>10179.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B47" t="n" s="414">
-        <v>1.0310759E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C47" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s" s="416">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G47" t="n" s="419">
-        <v>0.1583290083772529</v>
+        <v>0.6117407227935575</v>
       </c>
       <c r="H47" t="n" s="420">
-        <v>-1.2099760054557764</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="413">
-        <v>10181.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B48" t="n" s="414">
-        <v>1.0276866E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C48" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s" s="416">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G48" t="n" s="419">
-        <v>-0.04251847919301664</v>
+        <v>0.5363092399507949</v>
       </c>
       <c r="H48" t="n" s="420">
-        <v>0.4320882469491817</v>
+        <v>1.6864194200065388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="413">
-        <v>10188.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B49" t="n" s="414">
-        <v>1.0276995E7</v>
+        <v>1.0276682E7</v>
       </c>
       <c r="C49" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s" s="416">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>0.23847550772379</v>
+        <v>0.6023079138440499</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>-0.2307766080207083</v>
+        <v>1.2808857647983833</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10191.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.0276981E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C50" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G50" t="n" s="419">
-        <v>-0.1396731669319534</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="H50" t="n" s="420">
-        <v>-0.11282595799200293</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="413">
-        <v>10212.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B51" t="n" s="414">
-        <v>9065750.0</v>
+        <v>9921470.0</v>
       </c>
       <c r="C51" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s" s="416">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G51" t="n" s="419">
-        <v>-0.19731402536560821</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="H51" t="n" s="420">
-        <v>0.4320882469491817</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="413">
-        <v>10214.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B52" t="n" s="414">
-        <v>1.0277022E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C52" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s" s="416">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G52" t="n" s="419">
-        <v>-0.018520554827498086</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="H52" t="n" s="420">
-        <v>-0.8849239582290443</v>
+        <v>1.4951617995718105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="413">
-        <v>10216.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B53" t="n" s="414">
-        <v>1.027672E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C53" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s" s="416">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G53" t="n" s="419">
-        <v>0.35837289813392276</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="H53" t="n" s="420">
-        <v>0.8124942542253428</v>
+        <v>-1.2095717428674873</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="413">
-        <v>10217.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B54" t="n" s="414">
-        <v>9805341.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C54" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s" s="416">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G54" t="n" s="419">
-        <v>0.3476157791728752</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="H54" t="n" s="420">
-        <v>1.4950616043287008</v>
+        <v>0.6258755079433423</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="413">
-        <v>10219.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B55" t="n" s="414">
-        <v>1.0276831E7</v>
+        <v>9368772.0</v>
       </c>
       <c r="C55" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s" s="416">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G55" t="n" s="419">
-        <v>0.047992902175278504</v>
+        <v>0.5937457922035082</v>
       </c>
       <c r="H55" t="n" s="420">
-        <v>-0.4559339723327851</v>
+        <v>1.6864194200065388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="413">
-        <v>10222.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B56" t="n" s="414">
-        <v>9436110.0</v>
+        <v>9274382.0</v>
       </c>
       <c r="C56" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s" s="416">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G56" t="n" s="419">
-        <v>-0.11105069991800237</v>
+        <v>0.5833106739550313</v>
       </c>
       <c r="H56" t="n" s="420">
-        <v>-2.1244035784035935</v>
+        <v>-1.642504682808196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="413">
-        <v>10226.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B57" t="n" s="414">
-        <v>1.0310342E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C57" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s" s="416">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s" s="417">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s" s="418">
         <v>63</v>
       </c>
-      <c r="E57" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="F57" t="s" s="418">
-        <v>36</v>
-      </c>
       <c r="G57" t="n" s="419">
-        <v>-0.32875481141990415</v>
+        <v>0.562721654380123</v>
       </c>
       <c r="H57" t="n" s="420">
-        <v>-1.3231890149954377</v>
+        <v>-1.9503088126836738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="413">
-        <v>10230.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B58" t="n" s="414">
-        <v>1.0351992E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C58" t="s" s="415">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s" s="416">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s" s="417">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s" s="418">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G58" t="n" s="419">
-        <v>-0.09555292568119382</v>
+        <v>0.4661803938484046</v>
       </c>
       <c r="H58" t="n" s="420">
-        <v>0.010212527763678972</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="413">
-        <v>10234.0</v>
-      </c>
-      <c r="B59" t="n" s="414">
-        <v>1.0310676E7</v>
-      </c>
-      <c r="C59" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="416">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s" s="418">
-        <v>36</v>
-      </c>
-      <c r="G59" t="n" s="419">
-        <v>-0.12662512634410175</v>
-      </c>
-      <c r="H59" t="n" s="420">
-        <v>-0.8849239582290443</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="413">
-        <v>10237.0</v>
-      </c>
-      <c r="B60" t="n" s="414">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C60" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="416">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="F60" t="s" s="418">
-        <v>36</v>
-      </c>
-      <c r="G60" t="n" s="419">
-        <v>-0.26345899743098544</v>
-      </c>
-      <c r="H60" t="n" s="420">
-        <v>0.010212527763678972</v>
+        <v>-0.9440135863889301</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +7546,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -5147,7 +7570,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -5158,15 +7581,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>-0.33104123462934154</v>
+        <v>-0.33333459818026473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>-0.33104123462934154</v>
+        <v>-0.33333459818026473</v>
       </c>
       <c r="C7" t="n" s="452">
         <v>1.0</v>
@@ -5193,7 +7616,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -5204,15 +7627,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>-1.1635445234820034</v>
+        <v>-1.17260894563959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>-1.1635445234820034</v>
+        <v>-1.17260894563959</v>
       </c>
       <c r="C13" t="e" s="472">
         <v>#DIV/0!</v>
@@ -5239,7 +7662,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -5250,15 +7673,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.269226715232231</v>
+        <v>0.26572128561329766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.269226715232231</v>
+        <v>0.26572128561329766</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>-0.0</v>
@@ -5296,19 +7719,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.7459636257268885</v>
+        <v>-0.7471047928977921</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>-0.33104123462934154</v>
+        <v>-0.33333459818026473</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.26901144728390547</v>
+        <v>0.26661851786962065</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.269226715232231</v>
+        <v>0.26572128561329766</v>
       </c>
     </row>
     <row r="25">
@@ -5323,7 +7746,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -5331,111 +7754,111 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>0.7874560893311836</v>
+        <v>0.4435506988506746</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>-0.006401919156081909</v>
+        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>0.24046162597318932</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>0.9917062529680452</v>
+        <v>-0.621765728385078</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>-0.10656307576313483</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>1.6601405188422123</v>
+        <v>0.19438092697207512</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>0.0632336423123559</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>-0.913205667423571</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>-0.057427662050236555</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>2.428609364247676</v>
+        <v>-0.11051255328776674</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>-0.2978705780156252</v>
+        <v>0.7677755565187216</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>-0.006401919156081909</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="533">
-        <v>0.06516017468002039</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="B35" t="n" s="534">
-        <v>0.6260797511905652</v>
+        <v>0.48203349533710915</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="533">
-        <v>-0.3116758145415511</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="B36" t="n" s="534">
-        <v>2.0768529388147976</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="533">
-        <v>0.05335579491401121</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="B37" t="n" s="534">
-        <v>-0.913205667423571</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="533">
-        <v>0.7274105624998651</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="B38" t="n" s="534">
-        <v>0.3732682811044383</v>
+        <v>1.646504990094715</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="533">
-        <v>-0.04406551542588773</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B39" t="n" s="534">
-        <v>2.0768529388147976</v>
+        <v>-1.4355957758372622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="533">
-        <v>-0.08820413996353477</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B40" t="n" s="534">
-        <v>-0.006401919156081909</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="533">
-        <v>-0.0016491846915258062</v>
+        <v>0.8546964096694868</v>
       </c>
       <c r="B41" t="n" s="534">
-        <v>2.0768529388147976</v>
+        <v>-1.2095717428674873</v>
       </c>
     </row>
     <row r="42">
@@ -5450,7 +7873,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="538">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -5476,15 +7899,15 @@
         <v>3</v>
       </c>
       <c r="H45" t="s" s="552">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="553">
-        <v>10171.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B46" t="n" s="554">
-        <v>698531.0</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C46" t="s" s="555">
         <v>21</v>
@@ -5493,24 +7916,24 @@
         <v>22</v>
       </c>
       <c r="E46" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n" s="559">
-        <v>0.7874560893311836</v>
+        <v>0.4435506988506746</v>
       </c>
       <c r="H46" t="n" s="560">
-        <v>-0.006401919156081909</v>
+        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="553">
-        <v>10185.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B47" t="n" s="554">
-        <v>1.027696E7</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C47" t="s" s="555">
         <v>21</v>
@@ -5519,24 +7942,24 @@
         <v>23</v>
       </c>
       <c r="E47" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47" t="n" s="559">
-        <v>0.24046162597318932</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H47" t="n" s="560">
-        <v>0.9917062529680452</v>
+        <v>-0.621765728385078</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="553">
-        <v>10187.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B48" t="n" s="554">
-        <v>9790781.0</v>
+        <v>8656201.0</v>
       </c>
       <c r="C48" t="s" s="555">
         <v>21</v>
@@ -5545,24 +7968,24 @@
         <v>24</v>
       </c>
       <c r="E48" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s" s="558">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G48" t="n" s="559">
-        <v>-0.10656307576313483</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H48" t="n" s="560">
-        <v>1.6601405188422123</v>
+        <v>0.19438092697207512</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="553">
-        <v>10192.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B49" t="n" s="554">
-        <v>1.0276682E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C49" t="s" s="555">
         <v>21</v>
@@ -5571,24 +7994,24 @@
         <v>25</v>
       </c>
       <c r="E49" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s" s="558">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G49" t="n" s="559">
-        <v>0.0632336423123559</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H49" t="n" s="560">
-        <v>-0.913205667423571</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="553">
-        <v>10202.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B50" t="n" s="554">
-        <v>1.0277036E7</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C50" t="s" s="555">
         <v>21</v>
@@ -5597,24 +8020,24 @@
         <v>26</v>
       </c>
       <c r="E50" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50" t="n" s="559">
-        <v>-0.057427662050236555</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H50" t="n" s="560">
-        <v>2.428609364247676</v>
+        <v>-0.11051255328776674</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="553">
-        <v>10203.0</v>
+        <v>10190.0</v>
       </c>
       <c r="B51" t="n" s="554">
-        <v>9921470.0</v>
+        <v>1.0276907E7</v>
       </c>
       <c r="C51" t="s" s="555">
         <v>21</v>
@@ -5623,24 +8046,24 @@
         <v>27</v>
       </c>
       <c r="E51" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s" s="558">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G51" t="n" s="559">
-        <v>-0.2978705780156252</v>
+        <v>0.7677755565187216</v>
       </c>
       <c r="H51" t="n" s="560">
-        <v>-0.006401919156081909</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="553">
-        <v>10208.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B52" t="n" s="554">
-        <v>1.0276932E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C52" t="s" s="555">
         <v>21</v>
@@ -5649,24 +8072,24 @@
         <v>28</v>
       </c>
       <c r="E52" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52" t="n" s="559">
-        <v>0.06516017468002039</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H52" t="n" s="560">
-        <v>0.6260797511905652</v>
+        <v>0.48203349533710915</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="553">
-        <v>10210.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B53" t="n" s="554">
-        <v>1.0277015E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C53" t="s" s="555">
         <v>21</v>
@@ -5675,24 +8098,24 @@
         <v>29</v>
       </c>
       <c r="E53" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G53" t="n" s="559">
-        <v>-0.3116758145415511</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H53" t="n" s="560">
-        <v>2.0768529388147976</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="553">
-        <v>10220.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B54" t="n" s="554">
-        <v>9760151.0</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C54" t="s" s="555">
         <v>21</v>
@@ -5701,24 +8124,24 @@
         <v>30</v>
       </c>
       <c r="E54" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="n" s="559">
-        <v>0.05335579491401121</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H54" t="n" s="560">
-        <v>-0.913205667423571</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="553">
-        <v>10224.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B55" t="n" s="554">
-        <v>9368772.0</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C55" t="s" s="555">
         <v>21</v>
@@ -5727,94 +8150,2186 @@
         <v>31</v>
       </c>
       <c r="E55" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s" s="558">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G55" t="n" s="559">
-        <v>0.7274105624998651</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H55" t="n" s="560">
-        <v>0.3732682811044383</v>
+        <v>1.646504990094715</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="553">
-        <v>10227.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B56" t="n" s="554">
-        <v>9274382.0</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C56" t="s" s="555">
         <v>21</v>
       </c>
       <c r="D56" t="s" s="556">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56" t="n" s="559">
-        <v>-0.04406551542588773</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="H56" t="n" s="560">
-        <v>2.0768529388147976</v>
+        <v>-1.4355957758372622</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="553">
-        <v>10233.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B57" t="n" s="554">
-        <v>9805320.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C57" t="s" s="555">
         <v>21</v>
       </c>
       <c r="D57" t="s" s="556">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s" s="557">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s" s="558">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n" s="559">
-        <v>-0.08820413996353477</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="H57" t="n" s="560">
-        <v>-0.006401919156081909</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="553">
-        <v>10238.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B58" t="n" s="554">
-        <v>1.0276953E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C58" t="s" s="555">
         <v>21</v>
       </c>
       <c r="D58" t="s" s="556">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s" s="557">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s" s="558">
+        <v>38</v>
+      </c>
+      <c r="G58" t="n" s="559">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="H58" t="n" s="560">
+        <v>-1.2095717428674873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>-0.4119090198536353</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>-0.4119090198536353</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>-1.3561163162385874</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>68</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>-1.3561163162385874</v>
+      </c>
+      <c r="C13" t="n" s="612">
+        <v>2.0132659199999997E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.20810563695900952</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>68</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.20810563695900952</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>9.370452282996505E-72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>69</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.8113134143402476</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>-0.4119090198536353</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.24965397537455622</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.20810563695900952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>0.7178179456681062</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>-1.2104795319559272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>0.3218547605305578</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>0.4320423626399933</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>0.29528105474686206</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>-0.11298912178826864</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>-0.020582617339175102</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>0.4320423626399933</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>0.20541005082214991</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>-0.8853012149884174</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>0.5034537644515523</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>-0.4561855465861614</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="673">
+        <v>0.18497725523421638</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>-1.7253315796202715</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="673">
+        <v>0.43520855991409646</v>
+      </c>
+      <c r="B36" t="n" s="674">
+        <v>-1.32374903163524</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="673">
+        <v>-0.013252757828635109</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>0.010078688627185084</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="673">
+        <v>0.07424974693787045</v>
+      </c>
+      <c r="B38" t="n" s="674">
+        <v>-0.8853012149884174</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="673">
+        <v>0.10586023279338314</v>
+      </c>
+      <c r="B39" t="n" s="674">
+        <v>0.010078688627185084</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="678">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s" s="692">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s" s="692">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10179.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>0.7178179456681062</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>-1.2104795319559272</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10181.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s" s="696">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>0.3218547605305578</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>0.4320423626399933</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10191.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>0.29528105474686206</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>-0.11298912178826864</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10212.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>9065750.0</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s" s="696">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>-0.020582617339175102</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>0.4320423626399933</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10214.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>0.20541005082214991</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>-0.8853012149884174</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="693">
+        <v>10219.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G49" t="n" s="699">
+        <v>0.5034537644515523</v>
+      </c>
+      <c r="H49" t="n" s="700">
+        <v>-0.4561855465861614</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10222.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>9436110.0</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>0.18497725523421638</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>-1.7253315796202715</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="693">
+        <v>10226.0</v>
+      </c>
+      <c r="B51" t="n" s="694">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C51" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s" s="696">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G51" t="n" s="699">
+        <v>0.43520855991409646</v>
+      </c>
+      <c r="H51" t="n" s="700">
+        <v>-1.32374903163524</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="693">
+        <v>10230.0</v>
+      </c>
+      <c r="B52" t="n" s="694">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C52" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s" s="696">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G52" t="n" s="699">
+        <v>-0.013252757828635109</v>
+      </c>
+      <c r="H52" t="n" s="700">
+        <v>0.010078688627185084</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="693">
+        <v>10234.0</v>
+      </c>
+      <c r="B53" t="n" s="694">
+        <v>1.0310676E7</v>
+      </c>
+      <c r="C53" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s" s="696">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G53" t="n" s="699">
+        <v>0.07424974693787045</v>
+      </c>
+      <c r="H53" t="n" s="700">
+        <v>-0.8853012149884174</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="693">
+        <v>10237.0</v>
+      </c>
+      <c r="B54" t="n" s="694">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C54" t="s" s="695">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s" s="696">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s" s="697">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s" s="698">
+        <v>63</v>
+      </c>
+      <c r="G54" t="n" s="699">
+        <v>0.10586023279338314</v>
+      </c>
+      <c r="H54" t="n" s="700">
+        <v>0.010078688627185084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>-0.3825250365249237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>-0.3825250365249237</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="751">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>-1.2420381653596226</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>75</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>-1.2420381653596226</v>
+      </c>
+      <c r="C13" t="n" s="752">
+        <v>2.0132659199999997E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.24561256135331028</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>75</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.24561256135331028</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>9.370452282996505E-72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.7990453433323504</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>-0.3825250365249237</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.28207751870677283</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.24561256135331028</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>0.7178179456681062</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>0.8224933277993178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>0.3218547605305578</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>0.29528105474686206</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>-0.007369671226134078</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>-0.020582617339175102</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>1.139517233858202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>0.20541005082214991</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>0.8224933277993178</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>0.5034537644515523</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="813">
+        <v>0.18497725523421638</v>
+      </c>
+      <c r="B35" t="n" s="814">
+        <v>1.786550775273302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="813">
+        <v>0.43520855991409646</v>
+      </c>
+      <c r="B36" t="n" s="814">
+        <v>0.3721177544727732</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="813">
+        <v>-0.013252757828635109</v>
+      </c>
+      <c r="B37" t="n" s="814">
+        <v>1.5327201224899234</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="813">
+        <v>0.07424974693787045</v>
+      </c>
+      <c r="B38" t="n" s="814">
+        <v>-0.007369671226134078</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="813">
+        <v>0.10586023279338314</v>
+      </c>
+      <c r="B39" t="n" s="814">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="818">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s" s="832">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s" s="832">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10179.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>0.7178179456681062</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>0.8224933277993178</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="833">
+        <v>10181.0</v>
+      </c>
+      <c r="B45" t="n" s="834">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C45" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s" s="836">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G45" t="n" s="839">
+        <v>0.3218547605305578</v>
+      </c>
+      <c r="H45" t="n" s="840">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="833">
+        <v>10191.0</v>
+      </c>
+      <c r="B46" t="n" s="834">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C46" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s" s="836">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G46" t="n" s="839">
+        <v>0.29528105474686206</v>
+      </c>
+      <c r="H46" t="n" s="840">
+        <v>-0.007369671226134078</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="833">
+        <v>10212.0</v>
+      </c>
+      <c r="B47" t="n" s="834">
+        <v>9065750.0</v>
+      </c>
+      <c r="C47" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s" s="836">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G47" t="n" s="839">
+        <v>-0.020582617339175102</v>
+      </c>
+      <c r="H47" t="n" s="840">
+        <v>1.139517233858202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="833">
+        <v>10214.0</v>
+      </c>
+      <c r="B48" t="n" s="834">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C48" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s" s="836">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G48" t="n" s="839">
+        <v>0.20541005082214991</v>
+      </c>
+      <c r="H48" t="n" s="840">
+        <v>0.8224933277993178</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="833">
+        <v>10219.0</v>
+      </c>
+      <c r="B49" t="n" s="834">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C49" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s" s="836">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G49" t="n" s="839">
+        <v>0.5034537644515523</v>
+      </c>
+      <c r="H49" t="n" s="840">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="833">
+        <v>10222.0</v>
+      </c>
+      <c r="B50" t="n" s="834">
+        <v>9436110.0</v>
+      </c>
+      <c r="C50" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s" s="836">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G50" t="n" s="839">
+        <v>0.18497725523421638</v>
+      </c>
+      <c r="H50" t="n" s="840">
+        <v>1.786550775273302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="833">
+        <v>10226.0</v>
+      </c>
+      <c r="B51" t="n" s="834">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C51" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s" s="836">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G51" t="n" s="839">
+        <v>0.43520855991409646</v>
+      </c>
+      <c r="H51" t="n" s="840">
+        <v>0.3721177544727732</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="833">
+        <v>10230.0</v>
+      </c>
+      <c r="B52" t="n" s="834">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C52" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s" s="836">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G52" t="n" s="839">
+        <v>-0.013252757828635109</v>
+      </c>
+      <c r="H52" t="n" s="840">
+        <v>1.5327201224899234</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="833">
+        <v>10234.0</v>
+      </c>
+      <c r="B53" t="n" s="834">
+        <v>1.0310676E7</v>
+      </c>
+      <c r="C53" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s" s="836">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G53" t="n" s="839">
+        <v>0.07424974693787045</v>
+      </c>
+      <c r="H53" t="n" s="840">
+        <v>-0.007369671226134078</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="833">
+        <v>10237.0</v>
+      </c>
+      <c r="B54" t="n" s="834">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C54" t="s" s="835">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s" s="836">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s" s="837">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s" s="838">
+        <v>63</v>
+      </c>
+      <c r="G54" t="n" s="839">
+        <v>0.10586023279338314</v>
+      </c>
+      <c r="H54" t="n" s="840">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="842">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="870">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="870">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="866">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="871">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="872">
+        <v>0.32359474740966365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="866">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n" s="871">
+        <v>0.32359474740966365</v>
+      </c>
+      <c r="C7" t="n" s="872">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="876">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="890">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="890">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="886">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="891">
+        <v>1.710947035355221E8</v>
+      </c>
+      <c r="C12" t="n" s="892">
+        <v>1.2330825062402975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="886">
+        <v>75</v>
+      </c>
+      <c r="B13" t="n" s="891">
+        <v>1.2330825062402975</v>
+      </c>
+      <c r="C13" t="e" s="892">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="896">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="910">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="910">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="906">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="911">
+        <v>3.5089823585550026E-101</v>
+      </c>
+      <c r="C18" t="n" s="912">
+        <v>0.23937771791725818</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="906">
+        <v>75</v>
+      </c>
+      <c r="B19" t="n" s="911">
+        <v>0.23937771791725818</v>
+      </c>
+      <c r="C19" t="n" s="912">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="916">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="930">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="930">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="930">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="930">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="926">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n" s="931">
+        <v>-0.22615716726586935</v>
+      </c>
+      <c r="C24" t="n" s="932">
+        <v>0.32359474740966365</v>
+      </c>
+      <c r="D24" t="n" s="933">
+        <v>0.7170031574218502</v>
+      </c>
+      <c r="E24" t="n" s="934">
+        <v>0.23937771791725818</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="938">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="952">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="952">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="953">
+        <v>0.4435506988506746</v>
+      </c>
+      <c r="B29" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="953">
+        <v>0.5310873221279265</v>
+      </c>
+      <c r="B30" t="n" s="954">
+        <v>1.276931514799406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="953">
+        <v>0.8974785237700684</v>
+      </c>
+      <c r="B31" t="n" s="954">
+        <v>0.9902035585447597</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="953">
+        <v>0.6398767900707459</v>
+      </c>
+      <c r="B32" t="n" s="954">
+        <v>1.276931514799406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="953">
+        <v>0.7744710186718347</v>
+      </c>
+      <c r="B33" t="n" s="954">
+        <v>1.406818292763501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="953">
+        <v>0.7677755565187216</v>
+      </c>
+      <c r="B34" t="n" s="954">
+        <v>0.624803490026419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="953">
+        <v>0.4770354022576471</v>
+      </c>
+      <c r="B35" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="953">
+        <v>0.7163284176930924</v>
+      </c>
+      <c r="B36" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="953">
+        <v>0.3397982112727087</v>
+      </c>
+      <c r="B37" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="953">
+        <v>0.7204334228506288</v>
+      </c>
+      <c r="B38" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="953">
+        <v>0.18624669103421349</v>
+      </c>
+      <c r="B39" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="953">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="B40" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="953">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="B41" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="953">
+        <v>0.6632820662179566</v>
+      </c>
+      <c r="B42" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="953">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="B43" t="n" s="954">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="958">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="972">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="972">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s" s="972">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s" s="972">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s" s="972">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s" s="972">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s" s="972">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s" s="972">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="973">
+        <v>10170.0</v>
+      </c>
+      <c r="B48" t="n" s="974">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C48" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s" s="976">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G48" t="n" s="979">
+        <v>0.4435506988506746</v>
+      </c>
+      <c r="H48" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="973">
+        <v>10176.0</v>
+      </c>
+      <c r="B49" t="n" s="974">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C49" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="976">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G49" t="n" s="979">
+        <v>0.5310873221279265</v>
+      </c>
+      <c r="H49" t="n" s="980">
+        <v>1.276931514799406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="973">
+        <v>10178.0</v>
+      </c>
+      <c r="B50" t="n" s="974">
+        <v>8656201.0</v>
+      </c>
+      <c r="C50" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="976">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s" s="978">
+        <v>39</v>
+      </c>
+      <c r="G50" t="n" s="979">
+        <v>0.8974785237700684</v>
+      </c>
+      <c r="H50" t="n" s="980">
+        <v>0.9902035585447597</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="973">
+        <v>10183.0</v>
+      </c>
+      <c r="B51" t="n" s="974">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C51" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="976">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s" s="978">
+        <v>39</v>
+      </c>
+      <c r="G51" t="n" s="979">
+        <v>0.6398767900707459</v>
+      </c>
+      <c r="H51" t="n" s="980">
+        <v>1.276931514799406</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="973">
+        <v>10186.0</v>
+      </c>
+      <c r="B52" t="n" s="974">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C52" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="976">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G52" t="n" s="979">
+        <v>0.7744710186718347</v>
+      </c>
+      <c r="H52" t="n" s="980">
+        <v>1.406818292763501</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="973">
+        <v>10190.0</v>
+      </c>
+      <c r="B53" t="n" s="974">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C53" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="976">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s" s="978">
+        <v>39</v>
+      </c>
+      <c r="G53" t="n" s="979">
+        <v>0.7677755565187216</v>
+      </c>
+      <c r="H53" t="n" s="980">
+        <v>0.624803490026419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="973">
+        <v>10195.0</v>
+      </c>
+      <c r="B54" t="n" s="974">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C54" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="976">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G54" t="n" s="979">
+        <v>0.4770354022576471</v>
+      </c>
+      <c r="H54" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="973">
+        <v>10196.0</v>
+      </c>
+      <c r="B55" t="n" s="974">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C55" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="976">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G55" t="n" s="979">
+        <v>0.7163284176930924</v>
+      </c>
+      <c r="H55" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="973">
+        <v>10197.0</v>
+      </c>
+      <c r="B56" t="n" s="974">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C56" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="976">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G56" t="n" s="979">
+        <v>0.3397982112727087</v>
+      </c>
+      <c r="H56" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="973">
+        <v>10198.0</v>
+      </c>
+      <c r="B57" t="n" s="974">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C57" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="976">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s" s="978">
+        <v>39</v>
+      </c>
+      <c r="G57" t="n" s="979">
+        <v>0.7204334228506288</v>
+      </c>
+      <c r="H57" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="973">
+        <v>10200.0</v>
+      </c>
+      <c r="B58" t="n" s="974">
+        <v>9795272.0</v>
+      </c>
+      <c r="C58" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="976">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s" s="978">
+        <v>39</v>
+      </c>
+      <c r="G58" t="n" s="979">
+        <v>0.18624669103421349</v>
+      </c>
+      <c r="H58" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="973">
+        <v>10209.0</v>
+      </c>
+      <c r="B59" t="n" s="974">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C59" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="976">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G59" t="n" s="979">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="H59" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="973">
+        <v>10221.0</v>
+      </c>
+      <c r="B60" t="n" s="974">
+        <v>9082496.0</v>
+      </c>
+      <c r="C60" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="976">
         <v>34</v>
       </c>
-      <c r="E58" t="s" s="557">
+      <c r="E60" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G60" t="n" s="979">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="H60" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="973">
+        <v>10231.0</v>
+      </c>
+      <c r="B61" t="n" s="974">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C61" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="976">
         <v>35</v>
       </c>
-      <c r="F58" t="s" s="558">
+      <c r="E61" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G61" t="n" s="979">
+        <v>0.6632820662179566</v>
+      </c>
+      <c r="H61" t="n" s="980">
+        <v>-0.9136302798736788</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="973">
+        <v>10240.0</v>
+      </c>
+      <c r="B62" t="n" s="974">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C62" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="976">
         <v>36</v>
       </c>
-      <c r="G58" t="n" s="559">
-        <v>-0.0016491846915258062</v>
-      </c>
-      <c r="H58" t="n" s="560">
-        <v>2.0768529388147976</v>
+      <c r="E62" t="s" s="977">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s" s="978">
+        <v>38</v>
+      </c>
+      <c r="G62" t="n" s="979">
+        <v>0.8546964096694868</v>
+      </c>
+      <c r="H62" t="n" s="980">
+        <v>-0.9136302798736788</v>
       </c>
     </row>
   </sheetData>
